--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H2">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I2">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J2">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>1035.563364723671</v>
+        <v>1047.9334979925</v>
       </c>
       <c r="R2">
-        <v>1035.563364723671</v>
+        <v>9431.4014819325</v>
       </c>
       <c r="S2">
-        <v>0.4711031736029012</v>
+        <v>0.4654242836627152</v>
       </c>
       <c r="T2">
-        <v>0.4711031736029012</v>
+        <v>0.4654242836627152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H3">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I3">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J3">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>189.5807151630457</v>
+        <v>196.8052228414764</v>
       </c>
       <c r="R3">
-        <v>189.5807151630457</v>
+        <v>1771.247005573288</v>
       </c>
       <c r="S3">
-        <v>0.08624491712397572</v>
+        <v>0.08740815141184727</v>
       </c>
       <c r="T3">
-        <v>0.08624491712397572</v>
+        <v>0.08740815141184727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.935086540269</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H4">
-        <v>228.935086540269</v>
+        <v>691.208633</v>
       </c>
       <c r="I4">
-        <v>0.5829455397001138</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J4">
-        <v>0.5829455397001138</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245779115138495</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N4">
-        <v>0.245779115138495</v>
+        <v>0.055439</v>
       </c>
       <c r="O4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q4">
-        <v>56.2674629940221</v>
+        <v>4.257768378320778</v>
       </c>
       <c r="R4">
-        <v>56.2674629940221</v>
+        <v>38.319915404887</v>
       </c>
       <c r="S4">
-        <v>0.02559744897323682</v>
+        <v>0.00189102533822799</v>
       </c>
       <c r="T4">
-        <v>0.02559744897323682</v>
+        <v>0.00189102533822799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>134.465186013425</v>
+        <v>230.4028776666667</v>
       </c>
       <c r="H5">
-        <v>134.465186013425</v>
+        <v>691.208633</v>
       </c>
       <c r="I5">
-        <v>0.3423934776274863</v>
+        <v>0.5806109522726741</v>
       </c>
       <c r="J5">
-        <v>0.3423934776274863</v>
+        <v>0.580610952272674</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.52339298607913</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N5">
-        <v>4.52339298607913</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q5">
-        <v>608.2388792849522</v>
+        <v>58.28739679307256</v>
       </c>
       <c r="R5">
-        <v>608.2388792849522</v>
+        <v>524.586571137653</v>
       </c>
       <c r="S5">
-        <v>0.2767027843016384</v>
+        <v>0.02588749185988364</v>
       </c>
       <c r="T5">
-        <v>0.2767027843016384</v>
+        <v>0.02588749185988364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H6">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I6">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J6">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.828098121734167</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N6">
-        <v>0.828098121734167</v>
+        <v>13.644797</v>
       </c>
       <c r="O6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q6">
-        <v>111.3503679763526</v>
+        <v>612.7092877541137</v>
       </c>
       <c r="R6">
-        <v>111.3503679763526</v>
+        <v>5514.383589787024</v>
       </c>
       <c r="S6">
-        <v>0.05065601345361255</v>
+        <v>0.2721258380352793</v>
       </c>
       <c r="T6">
-        <v>0.05065601345361255</v>
+        <v>0.2721258380352793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>134.465186013425</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H7">
-        <v>134.465186013425</v>
+        <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J7">
-        <v>0.3423934776274863</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.245779115138495</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N7">
-        <v>0.245779115138495</v>
+        <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q7">
-        <v>33.04873443531274</v>
+        <v>115.0687406638791</v>
       </c>
       <c r="R7">
-        <v>33.04873443531274</v>
+        <v>1035.618665974912</v>
       </c>
       <c r="S7">
-        <v>0.01503467987223537</v>
+        <v>0.05110609241717355</v>
       </c>
       <c r="T7">
-        <v>0.01503467987223537</v>
+        <v>0.05110609241717356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.109875835497129</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H8">
-        <v>0.109875835497129</v>
+        <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.0002797807413089924</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J8">
-        <v>0.0002797807413089924</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.52339298607913</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N8">
-        <v>4.52339298607913</v>
+        <v>0.055439</v>
       </c>
       <c r="O8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q8">
-        <v>0.4970115836272976</v>
+        <v>2.489446358476445</v>
       </c>
       <c r="R8">
-        <v>0.4970115836272976</v>
+        <v>22.405017226288</v>
       </c>
       <c r="S8">
-        <v>0.0002261027594643639</v>
+        <v>0.001105651065005793</v>
       </c>
       <c r="T8">
-        <v>0.0002261027594643639</v>
+        <v>0.001105651065005793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.109875835497129</v>
+        <v>134.7127306666667</v>
       </c>
       <c r="H9">
-        <v>0.109875835497129</v>
+        <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.0002797807413089924</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="J9">
-        <v>0.0002797807413089924</v>
+        <v>0.339473567464654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.828098121734167</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N9">
-        <v>0.828098121734167</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q9">
-        <v>0.09098797299914484</v>
+        <v>34.07967150829689</v>
       </c>
       <c r="R9">
-        <v>0.09098797299914484</v>
+        <v>306.7170435746721</v>
       </c>
       <c r="S9">
-        <v>4.139266055537817E-05</v>
+        <v>0.01513598594719533</v>
       </c>
       <c r="T9">
-        <v>4.139266055537817E-05</v>
+        <v>0.01513598594719533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.109875835497129</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H10">
-        <v>0.109875835497129</v>
+        <v>0.365842</v>
       </c>
       <c r="I10">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J10">
-        <v>0.0002797807413089924</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245779115138495</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N10">
-        <v>0.245779115138495</v>
+        <v>13.644797</v>
       </c>
       <c r="O10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q10">
-        <v>0.0270051856235872</v>
+        <v>0.5546488693415556</v>
       </c>
       <c r="R10">
-        <v>0.0270051856235872</v>
+        <v>4.991839824074</v>
       </c>
       <c r="S10">
-        <v>1.228532128925028E-05</v>
+        <v>0.0002463391552919667</v>
       </c>
       <c r="T10">
-        <v>1.228532128925028E-05</v>
+        <v>0.0002463391552919668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.10907623357881</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H11">
-        <v>0.10907623357881</v>
+        <v>0.365842</v>
       </c>
       <c r="I11">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J11">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52339298607913</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N11">
-        <v>4.52339298607913</v>
+        <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q11">
-        <v>0.493394669918318</v>
+        <v>0.1041648105902222</v>
       </c>
       <c r="R11">
-        <v>0.493394669918318</v>
+        <v>0.9374832953119999</v>
       </c>
       <c r="S11">
-        <v>0.0002244573367070584</v>
+        <v>4.626327190102243E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002244573367070584</v>
+        <v>4.626327190102244E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.10907623357881</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H12">
-        <v>0.10907623357881</v>
+        <v>0.365842</v>
       </c>
       <c r="I12">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J12">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.828098121734167</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N12">
-        <v>0.828098121734167</v>
+        <v>0.055439</v>
       </c>
       <c r="O12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q12">
-        <v>0.09032582415244983</v>
+        <v>0.002253546070888889</v>
       </c>
       <c r="R12">
-        <v>0.09032582415244983</v>
+        <v>0.020281914638</v>
       </c>
       <c r="S12">
-        <v>4.109143280466612E-05</v>
+        <v>1.000879414346094E-06</v>
       </c>
       <c r="T12">
-        <v>4.109143280466612E-05</v>
+        <v>1.000879414346094E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.10907623357881</v>
+        <v>0.1219473333333333</v>
       </c>
       <c r="H13">
-        <v>0.10907623357881</v>
+        <v>0.365842</v>
       </c>
       <c r="I13">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="J13">
-        <v>0.0002777446865527559</v>
+        <v>0.0003073050043941503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.245779115138495</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N13">
-        <v>0.245779115138495</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O13">
-        <v>0.04391053233961612</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P13">
-        <v>0.04391053233961612</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q13">
-        <v>0.02680866017163972</v>
+        <v>0.03085027703577778</v>
       </c>
       <c r="R13">
-        <v>0.02680866017163972</v>
+        <v>0.277652493322</v>
       </c>
       <c r="S13">
-        <v>1.219591704103133E-05</v>
+        <v>1.370169778681504E-05</v>
       </c>
       <c r="T13">
-        <v>1.219591704103133E-05</v>
+        <v>1.370169778681505E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.102000516101</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H14">
-        <v>29.102000516101</v>
+        <v>0.357932</v>
       </c>
       <c r="I14">
-        <v>0.07410345724453825</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J14">
-        <v>0.07410345724453825</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N14">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O14">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P14">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q14">
-        <v>131.6397850154025</v>
+        <v>0.5426566088671111</v>
       </c>
       <c r="R14">
-        <v>131.6397850154025</v>
+        <v>4.883909479804</v>
       </c>
       <c r="S14">
-        <v>0.0598861668978682</v>
+        <v>0.0002410129688006414</v>
       </c>
       <c r="T14">
-        <v>0.0598861668978682</v>
+        <v>0.0002410129688006414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.102000516101</v>
+        <v>0.1193106666666667</v>
       </c>
       <c r="H15">
-        <v>29.102000516101</v>
+        <v>0.357932</v>
       </c>
       <c r="I15">
-        <v>0.07410345724453825</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="J15">
-        <v>0.07410345724453825</v>
+        <v>0.0003006606535958338</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N15">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P15">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q15">
-        <v>24.09931196609</v>
+        <v>0.1019126261724444</v>
       </c>
       <c r="R15">
-        <v>24.09931196609</v>
+        <v>0.917213635552</v>
       </c>
       <c r="S15">
-        <v>0.01096336809085638</v>
+        <v>4.526299724492202E-05</v>
       </c>
       <c r="T15">
-        <v>0.01096336809085638</v>
+        <v>4.526299724492202E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1193106666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.357932</v>
+      </c>
+      <c r="I16">
+        <v>0.0003006606535958338</v>
+      </c>
+      <c r="J16">
+        <v>0.0003006606535958338</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055439</v>
+      </c>
+      <c r="O16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q16">
+        <v>0.002204821349777778</v>
+      </c>
+      <c r="R16">
+        <v>0.019843392148</v>
+      </c>
+      <c r="S16">
+        <v>9.79239044548538E-07</v>
+      </c>
+      <c r="T16">
+        <v>9.792390445485382E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1193106666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.357932</v>
+      </c>
+      <c r="I17">
+        <v>0.0003006606535958338</v>
+      </c>
+      <c r="J17">
+        <v>0.0003006606535958338</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P17">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q17">
+        <v>0.03018325222355556</v>
+      </c>
+      <c r="R17">
+        <v>0.2716492700120001</v>
+      </c>
+      <c r="S17">
+        <v>1.340544850572182E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.340544850572182E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>29.102000516101</v>
-      </c>
-      <c r="H16">
-        <v>29.102000516101</v>
-      </c>
-      <c r="I16">
-        <v>0.07410345724453825</v>
-      </c>
-      <c r="J16">
-        <v>0.07410345724453825</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N16">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O16">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P16">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q16">
-        <v>7.152663935607329</v>
-      </c>
-      <c r="R16">
-        <v>7.152663935607329</v>
-      </c>
-      <c r="S16">
-        <v>0.003253922255813657</v>
-      </c>
-      <c r="T16">
-        <v>0.003253922255813657</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>31.471469</v>
+      </c>
+      <c r="H18">
+        <v>94.414407</v>
+      </c>
+      <c r="I18">
+        <v>0.07930751460468206</v>
+      </c>
+      <c r="J18">
+        <v>0.07930751460468205</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.644797</v>
+      </c>
+      <c r="O18">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P18">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q18">
+        <v>143.1406019322643</v>
+      </c>
+      <c r="R18">
+        <v>1288.265417390379</v>
+      </c>
+      <c r="S18">
+        <v>0.06357379761692739</v>
+      </c>
+      <c r="T18">
+        <v>0.06357379761692739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.471469</v>
+      </c>
+      <c r="H19">
+        <v>94.414407</v>
+      </c>
+      <c r="I19">
+        <v>0.07930751460468206</v>
+      </c>
+      <c r="J19">
+        <v>0.07930751460468205</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q19">
+        <v>26.88225742846133</v>
+      </c>
+      <c r="R19">
+        <v>241.940316856152</v>
+      </c>
+      <c r="S19">
+        <v>0.01193936011287604</v>
+      </c>
+      <c r="T19">
+        <v>0.01193936011287604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.471469</v>
+      </c>
+      <c r="H20">
+        <v>94.414407</v>
+      </c>
+      <c r="I20">
+        <v>0.07930751460468206</v>
+      </c>
+      <c r="J20">
+        <v>0.07930751460468205</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055439</v>
+      </c>
+      <c r="O20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q20">
+        <v>0.5815822566303334</v>
+      </c>
+      <c r="R20">
+        <v>5.234240309673</v>
+      </c>
+      <c r="S20">
+        <v>0.0002583012239819205</v>
+      </c>
+      <c r="T20">
+        <v>0.0002583012239819205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.471469</v>
+      </c>
+      <c r="H21">
+        <v>94.414407</v>
+      </c>
+      <c r="I21">
+        <v>0.07930751460468206</v>
+      </c>
+      <c r="J21">
+        <v>0.07930751460468205</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P21">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q21">
+        <v>7.961662718109667</v>
+      </c>
+      <c r="R21">
+        <v>71.65496446298701</v>
+      </c>
+      <c r="S21">
+        <v>0.003536055650896711</v>
+      </c>
+      <c r="T21">
+        <v>0.003536055650896711</v>
       </c>
     </row>
   </sheetData>
